--- a/Clean_data/Dates_all.xlsx
+++ b/Clean_data/Dates_all.xlsx
@@ -480,7 +480,7 @@
         <v>35706</v>
       </c>
       <c r="D2" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="E2" t="n">
         <v>15.07</v>
@@ -502,7 +502,7 @@
         <v>37186</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E3" t="n">
         <v>15.17</v>
@@ -524,7 +524,7 @@
         <v>39173</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E4" t="n">
         <v>14.97</v>
@@ -546,7 +546,7 @@
         <v>42130</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="E5" t="n">
         <v>18.14</v>
@@ -568,7 +568,7 @@
         <v>42176</v>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E6" t="n">
         <v>17.53</v>
@@ -590,7 +590,7 @@
         <v>52282</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="E7" t="n">
         <v>19.38</v>
@@ -612,7 +612,7 @@
         <v>32990</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="E8" t="n">
         <v>14.18</v>
@@ -634,7 +634,7 @@
         <v>33377</v>
       </c>
       <c r="D9" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="E9" t="n">
         <v>14.27</v>
@@ -656,7 +656,7 @@
         <v>34155</v>
       </c>
       <c r="D10" t="n">
-        <v>1.61</v>
+        <v>0.0161</v>
       </c>
       <c r="E10" t="n">
         <v>14.43</v>
@@ -678,7 +678,7 @@
         <v>39243</v>
       </c>
       <c r="D11" t="n">
-        <v>1.44</v>
+        <v>0.0144</v>
       </c>
       <c r="E11" t="n">
         <v>16.28</v>
@@ -700,7 +700,7 @@
         <v>35006</v>
       </c>
       <c r="D12" t="n">
-        <v>1.44</v>
+        <v>0.0144</v>
       </c>
       <c r="E12" t="n">
         <v>16.74</v>
@@ -722,7 +722,7 @@
         <v>33789</v>
       </c>
       <c r="D13" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E13" t="n">
         <v>15.94</v>
@@ -744,7 +744,7 @@
         <v>34086</v>
       </c>
       <c r="D14" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E14" t="n">
         <v>15.31</v>
@@ -766,7 +766,7 @@
         <v>37615</v>
       </c>
       <c r="D15" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E15" t="n">
         <v>15.43</v>
@@ -788,7 +788,7 @@
         <v>34669</v>
       </c>
       <c r="D16" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="E16" t="n">
         <v>14.77</v>
@@ -810,7 +810,7 @@
         <v>42391</v>
       </c>
       <c r="D17" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E17" t="n">
         <v>17.21</v>
@@ -832,7 +832,7 @@
         <v>38805</v>
       </c>
       <c r="D18" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E18" t="n">
         <v>15.49</v>
@@ -854,7 +854,7 @@
         <v>38216</v>
       </c>
       <c r="D19" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="E19" t="n">
         <v>16.85</v>
@@ -876,7 +876,7 @@
         <v>39862</v>
       </c>
       <c r="D20" t="n">
-        <v>1.67</v>
+        <v>0.0167</v>
       </c>
       <c r="E20" t="n">
         <v>16.81</v>
@@ -898,7 +898,7 @@
         <v>33614</v>
       </c>
       <c r="D21" t="n">
-        <v>1.66</v>
+        <v>0.0166</v>
       </c>
       <c r="E21" t="n">
         <v>13.56</v>
@@ -920,7 +920,7 @@
         <v>33571</v>
       </c>
       <c r="D22" t="n">
-        <v>1.73</v>
+        <v>0.0173</v>
       </c>
       <c r="E22" t="n">
         <v>13.17</v>
@@ -942,7 +942,7 @@
         <v>34351</v>
       </c>
       <c r="D23" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="E23" t="n">
         <v>14.43</v>
@@ -964,7 +964,7 @@
         <v>35954</v>
       </c>
       <c r="D24" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="E24" t="n">
         <v>14.59</v>
@@ -986,7 +986,7 @@
         <v>35568</v>
       </c>
       <c r="D25" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E25" t="n">
         <v>14.48</v>
@@ -1008,7 +1008,7 @@
         <v>34479</v>
       </c>
       <c r="D26" t="n">
-        <v>1.18</v>
+        <v>0.0118</v>
       </c>
       <c r="E26" t="n">
         <v>17.99</v>
@@ -1030,7 +1030,7 @@
         <v>38055</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26</v>
+        <v>0.0126</v>
       </c>
       <c r="E27" t="n">
         <v>17.71</v>
@@ -1052,7 +1052,7 @@
         <v>35001</v>
       </c>
       <c r="D28" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="E28" t="n">
         <v>16.25</v>
@@ -1074,7 +1074,7 @@
         <v>30874</v>
       </c>
       <c r="D29" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="E29" t="n">
         <v>14.41</v>
@@ -1096,7 +1096,7 @@
         <v>37614</v>
       </c>
       <c r="D30" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="E30" t="n">
         <v>21.41</v>
@@ -1118,7 +1118,7 @@
         <v>32929</v>
       </c>
       <c r="D31" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E31" t="n">
         <v>15.35</v>
@@ -1140,7 +1140,7 @@
         <v>33637</v>
       </c>
       <c r="D32" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="E32" t="n">
         <v>16.97</v>
@@ -1162,7 +1162,7 @@
         <v>33266</v>
       </c>
       <c r="D33" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E33" t="n">
         <v>20.8</v>
@@ -1184,7 +1184,7 @@
         <v>33220</v>
       </c>
       <c r="D34" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E34" t="n">
         <v>18.34</v>
@@ -1206,7 +1206,7 @@
         <v>36065</v>
       </c>
       <c r="D35" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E35" t="n">
         <v>18.69</v>
@@ -1228,7 +1228,7 @@
         <v>38776</v>
       </c>
       <c r="D36" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E36" t="n">
         <v>20.46</v>
@@ -1250,7 +1250,7 @@
         <v>26668</v>
       </c>
       <c r="D37" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="E37" t="n">
         <v>18.11</v>
@@ -1272,7 +1272,7 @@
         <v>27199</v>
       </c>
       <c r="D38" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E38" t="n">
         <v>17.62</v>
@@ -1294,7 +1294,7 @@
         <v>31804</v>
       </c>
       <c r="D39" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="E39" t="n">
         <v>15.54</v>
@@ -1316,7 +1316,7 @@
         <v>31276</v>
       </c>
       <c r="D40" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="E40" t="n">
         <v>20.54</v>
@@ -1338,7 +1338,7 @@
         <v>34396</v>
       </c>
       <c r="D41" t="n">
-        <v>1.37</v>
+        <v>0.0137</v>
       </c>
       <c r="E41" t="n">
         <v>20.24</v>
@@ -1360,7 +1360,7 @@
         <v>33660</v>
       </c>
       <c r="D42" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E42" t="n">
         <v>18.44</v>
@@ -1382,7 +1382,7 @@
         <v>31552</v>
       </c>
       <c r="D43" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="E43" t="n">
         <v>15.83</v>
@@ -1404,7 +1404,7 @@
         <v>25119</v>
       </c>
       <c r="D44" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="E44" t="n">
         <v>20.63</v>
@@ -1426,7 +1426,7 @@
         <v>25086</v>
       </c>
       <c r="D45" t="n">
-        <v>1.37</v>
+        <v>0.0137</v>
       </c>
       <c r="E45" t="n">
         <v>19.69</v>
@@ -1448,7 +1448,7 @@
         <v>29568</v>
       </c>
       <c r="D46" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E46" t="n">
         <v>17.92</v>
@@ -1470,7 +1470,7 @@
         <v>34753</v>
       </c>
       <c r="D47" t="n">
-        <v>1.06</v>
+        <v>0.0106</v>
       </c>
       <c r="E47" t="n">
         <v>24.82</v>
@@ -1492,7 +1492,7 @@
         <v>31724</v>
       </c>
       <c r="D48" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E48" t="n">
         <v>19.57</v>
@@ -1514,7 +1514,7 @@
         <v>34510</v>
       </c>
       <c r="D49" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E49" t="n">
         <v>20.82</v>
@@ -1536,7 +1536,7 @@
         <v>29190</v>
       </c>
       <c r="D50" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E50" t="n">
         <v>16.64</v>
@@ -1558,7 +1558,7 @@
         <v>31657</v>
       </c>
       <c r="D51" t="n">
-        <v>1.51</v>
+        <v>0.0151</v>
       </c>
       <c r="E51" t="n">
         <v>16.84</v>
@@ -1580,7 +1580,7 @@
         <v>34102</v>
       </c>
       <c r="D52" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E52" t="n">
         <v>17.78</v>
@@ -1602,7 +1602,7 @@
         <v>34923</v>
       </c>
       <c r="D53" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E53" t="n">
         <v>18.01</v>
@@ -1624,7 +1624,7 @@
         <v>35827</v>
       </c>
       <c r="D54" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="E54" t="n">
         <v>22.67</v>
@@ -1646,7 +1646,7 @@
         <v>36225</v>
       </c>
       <c r="D55" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="E55" t="n">
         <v>20.06</v>
@@ -1668,7 +1668,7 @@
         <v>40121</v>
       </c>
       <c r="D56" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E56" t="n">
         <v>19.31</v>
@@ -1690,7 +1690,7 @@
         <v>42387</v>
       </c>
       <c r="D57" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E57" t="n">
         <v>18.83</v>
@@ -1712,7 +1712,7 @@
         <v>52036</v>
       </c>
       <c r="D58" t="n">
-        <v>1.14</v>
+        <v>0.0114</v>
       </c>
       <c r="E58" t="n">
         <v>21.67</v>
@@ -1734,7 +1734,7 @@
         <v>44117</v>
       </c>
       <c r="D59" t="n">
-        <v>1.31</v>
+        <v>0.0131</v>
       </c>
       <c r="E59" t="n">
         <v>19.31</v>
@@ -1756,7 +1756,7 @@
         <v>48398</v>
       </c>
       <c r="D60" t="n">
-        <v>1.41</v>
+        <v>0.0141</v>
       </c>
       <c r="E60" t="n">
         <v>19.49</v>
@@ -1778,7 +1778,7 @@
         <v>52401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="E61" t="n">
         <v>26.74</v>
@@ -1800,7 +1800,7 @@
         <v>41854</v>
       </c>
       <c r="D62" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E62" t="n">
         <v>19.7</v>
@@ -1822,7 +1822,7 @@
         <v>51174</v>
       </c>
       <c r="D63" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="E63" t="n">
         <v>19.1</v>
@@ -1844,7 +1844,7 @@
         <v>50867</v>
       </c>
       <c r="D64" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="E64" t="n">
         <v>21.78</v>
@@ -1866,7 +1866,7 @@
         <v>52992</v>
       </c>
       <c r="D65" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="E65" t="n">
         <v>22.81</v>
@@ -1888,7 +1888,7 @@
         <v>48566</v>
       </c>
       <c r="D66" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E66" t="n">
         <v>19.37</v>
@@ -1910,7 +1910,7 @@
         <v>55826</v>
       </c>
       <c r="D67" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="E67" t="n">
         <v>18.73</v>
@@ -1932,7 +1932,7 @@
         <v>46529</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23</v>
+        <v>0.0123</v>
       </c>
       <c r="E68" t="n">
         <v>20.99</v>
@@ -1954,7 +1954,7 @@
         <v>44038</v>
       </c>
       <c r="D69" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E69" t="n">
         <v>17.46</v>
@@ -1976,7 +1976,7 @@
         <v>49379</v>
       </c>
       <c r="D70" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="E70" t="n">
         <v>16.8</v>
@@ -1998,7 +1998,7 @@
         <v>39877</v>
       </c>
       <c r="D71" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E71" t="n">
         <v>19.73</v>
@@ -2020,7 +2020,7 @@
         <v>45829</v>
       </c>
       <c r="D72" t="n">
-        <v>1.29</v>
+        <v>0.0129</v>
       </c>
       <c r="E72" t="n">
         <v>18.91</v>
@@ -2042,7 +2042,7 @@
         <v>49891</v>
       </c>
       <c r="D73" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="E73" t="n">
         <v>17.92</v>
@@ -2064,7 +2064,7 @@
         <v>56567</v>
       </c>
       <c r="D74" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="E74" t="n">
         <v>18.78</v>
@@ -2086,7 +2086,7 @@
         <v>51247</v>
       </c>
       <c r="D75" t="n">
-        <v>1.23</v>
+        <v>0.0123</v>
       </c>
       <c r="E75" t="n">
         <v>22.52</v>
@@ -2108,7 +2108,7 @@
         <v>48379</v>
       </c>
       <c r="D76" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E76" t="n">
         <v>18.95</v>
@@ -2130,7 +2130,7 @@
         <v>54572</v>
       </c>
       <c r="D77" t="n">
-        <v>1.31</v>
+        <v>0.0131</v>
       </c>
       <c r="E77" t="n">
         <v>20.13</v>
@@ -2152,7 +2152,7 @@
         <v>55211</v>
       </c>
       <c r="D78" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E78" t="n">
         <v>18.17</v>
@@ -2174,7 +2174,7 @@
         <v>56249</v>
       </c>
       <c r="D79" t="n">
-        <v>1.37</v>
+        <v>0.0137</v>
       </c>
       <c r="E79" t="n">
         <v>19.03</v>
@@ -2196,7 +2196,7 @@
         <v>53423</v>
       </c>
       <c r="D80" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="E80" t="n">
         <v>19.31</v>
@@ -2218,7 +2218,7 @@
         <v>53581</v>
       </c>
       <c r="D81" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="E81" t="n">
         <v>18.11</v>
@@ -2240,7 +2240,7 @@
         <v>50875</v>
       </c>
       <c r="D82" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="E82" t="n">
         <v>22.98</v>
@@ -2262,7 +2262,7 @@
         <v>45132</v>
       </c>
       <c r="D83" t="n">
-        <v>1.37</v>
+        <v>0.0137</v>
       </c>
       <c r="E83" t="n">
         <v>19.86</v>
@@ -2284,7 +2284,7 @@
         <v>46845</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="E84" t="n">
         <v>19.3</v>
@@ -2306,7 +2306,7 @@
         <v>46774</v>
       </c>
       <c r="D85" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="E85" t="n">
         <v>18.03</v>
@@ -2328,7 +2328,7 @@
         <v>45861</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="E86" t="n">
         <v>16.94</v>
@@ -2350,7 +2350,7 @@
         <v>51148</v>
       </c>
       <c r="D87" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="E87" t="n">
         <v>19.21</v>
@@ -2372,7 +2372,7 @@
         <v>53855</v>
       </c>
       <c r="D88" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E88" t="n">
         <v>19.11</v>
@@ -2394,7 +2394,7 @@
         <v>47324</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="E89" t="n">
         <v>22.31</v>
@@ -2416,7 +2416,7 @@
         <v>43007</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E90" t="n">
         <v>18.94</v>
@@ -2438,7 +2438,7 @@
         <v>49603</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16</v>
+        <v>0.0116</v>
       </c>
       <c r="E91" t="n">
         <v>22.43</v>
@@ -2460,7 +2460,7 @@
         <v>50590</v>
       </c>
       <c r="D92" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="E92" t="n">
         <v>18.85</v>
@@ -2482,7 +2482,7 @@
         <v>46311</v>
       </c>
       <c r="D93" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E93" t="n">
         <v>17.53</v>
@@ -2504,7 +2504,7 @@
         <v>1247</v>
       </c>
       <c r="D94" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="E94" t="n">
         <v>20.7</v>
@@ -2526,7 +2526,7 @@
         <v>735</v>
       </c>
       <c r="D95" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="E95" t="n">
         <v>13.85</v>
@@ -2548,7 +2548,7 @@
         <v>1398</v>
       </c>
       <c r="D96" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>22.61</v>
@@ -2570,7 +2570,7 @@
         <v>826</v>
       </c>
       <c r="D97" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E97" t="n">
         <v>18.53</v>
@@ -2592,7 +2592,7 @@
         <v>882</v>
       </c>
       <c r="D98" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="E98" t="n">
         <v>18.92</v>
@@ -2614,7 +2614,7 @@
         <v>1015</v>
       </c>
       <c r="D99" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="E99" t="n">
         <v>20.9</v>
@@ -2636,7 +2636,7 @@
         <v>811</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1</v>
+        <v>0.021</v>
       </c>
       <c r="E100" t="n">
         <v>18.17</v>
@@ -2658,7 +2658,7 @@
         <v>1131</v>
       </c>
       <c r="D101" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E101" t="n">
         <v>21.82</v>
@@ -2680,7 +2680,7 @@
         <v>817</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E102" t="n">
         <v>16.53</v>
@@ -2702,7 +2702,7 @@
         <v>843</v>
       </c>
       <c r="D103" t="n">
-        <v>2.49</v>
+        <v>0.0249</v>
       </c>
       <c r="E103" t="n">
         <v>17.47</v>
@@ -2724,7 +2724,7 @@
         <v>921</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19</v>
+        <v>0.0119</v>
       </c>
       <c r="E104" t="n">
         <v>23.29</v>
@@ -2746,7 +2746,7 @@
         <v>782</v>
       </c>
       <c r="D105" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="E105" t="n">
         <v>18.73</v>
@@ -2768,7 +2768,7 @@
         <v>891</v>
       </c>
       <c r="D106" t="n">
-        <v>0.34</v>
+        <v>0.0034</v>
       </c>
       <c r="E106" t="n">
         <v>22.34</v>
@@ -2790,7 +2790,7 @@
         <v>928</v>
       </c>
       <c r="D107" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="E107" t="n">
         <v>15.03</v>
@@ -2812,7 +2812,7 @@
         <v>744</v>
       </c>
       <c r="D108" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="E108" t="n">
         <v>20.85</v>
@@ -2834,7 +2834,7 @@
         <v>867</v>
       </c>
       <c r="D109" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E109" t="n">
         <v>14.4</v>
@@ -2856,7 +2856,7 @@
         <v>737</v>
       </c>
       <c r="D110" t="n">
-        <v>2.58</v>
+        <v>0.0258</v>
       </c>
       <c r="E110" t="n">
         <v>13.31</v>
@@ -2878,7 +2878,7 @@
         <v>855</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="E111" t="n">
         <v>22.08</v>
@@ -2900,7 +2900,7 @@
         <v>1260</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="E112" t="n">
         <v>24.94</v>
@@ -2922,7 +2922,7 @@
         <v>1241</v>
       </c>
       <c r="D113" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="E113" t="n">
         <v>27.71</v>
@@ -2944,7 +2944,7 @@
         <v>935</v>
       </c>
       <c r="D114" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E114" t="n">
         <v>26.1</v>
@@ -2966,7 +2966,7 @@
         <v>668</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69</v>
+        <v>0.0269</v>
       </c>
       <c r="E115" t="n">
         <v>11.49</v>
@@ -2988,7 +2988,7 @@
         <v>804</v>
       </c>
       <c r="D116" t="n">
-        <v>2.11</v>
+        <v>0.0211</v>
       </c>
       <c r="E116" t="n">
         <v>14.8</v>
@@ -3010,7 +3010,7 @@
         <v>675</v>
       </c>
       <c r="D117" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="E117" t="n">
         <v>12.29</v>
@@ -3032,7 +3032,7 @@
         <v>948</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E118" t="n">
         <v>17.42</v>
@@ -3054,7 +3054,7 @@
         <v>897</v>
       </c>
       <c r="D119" t="n">
-        <v>2.56</v>
+        <v>0.0256</v>
       </c>
       <c r="E119" t="n">
         <v>15.78</v>
@@ -3076,7 +3076,7 @@
         <v>1036</v>
       </c>
       <c r="D120" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E120" t="n">
         <v>16.28</v>
@@ -3098,7 +3098,7 @@
         <v>893</v>
       </c>
       <c r="D121" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="E121" t="n">
         <v>12.91</v>
@@ -3120,7 +3120,7 @@
         <v>895</v>
       </c>
       <c r="D122" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E122" t="n">
         <v>12.77</v>
@@ -3142,7 +3142,7 @@
         <v>808</v>
       </c>
       <c r="D123" t="n">
-        <v>3.84</v>
+        <v>0.0384</v>
       </c>
       <c r="E123" t="n">
         <v>10.72</v>
@@ -3164,7 +3164,7 @@
         <v>792</v>
       </c>
       <c r="D124" t="n">
-        <v>3.28</v>
+        <v>0.0328</v>
       </c>
       <c r="E124" t="n">
         <v>10.23</v>
@@ -3186,7 +3186,7 @@
         <v>1111</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E125" t="n">
         <v>16.44</v>
@@ -3208,7 +3208,7 @@
         <v>831</v>
       </c>
       <c r="D126" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="E126" t="n">
         <v>11.94</v>
@@ -3230,7 +3230,7 @@
         <v>817</v>
       </c>
       <c r="D127" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="E127" t="n">
         <v>11.51</v>
@@ -3252,7 +3252,7 @@
         <v>1057</v>
       </c>
       <c r="D128" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="E128" t="n">
         <v>10.69</v>
@@ -3274,7 +3274,7 @@
         <v>1115</v>
       </c>
       <c r="D129" t="n">
-        <v>2.06</v>
+        <v>0.0206</v>
       </c>
       <c r="E129" t="n">
         <v>17.82</v>
@@ -3296,7 +3296,7 @@
         <v>880</v>
       </c>
       <c r="D130" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="E130" t="n">
         <v>11.91</v>
@@ -3318,7 +3318,7 @@
         <v>821</v>
       </c>
       <c r="D131" t="n">
-        <v>2.68</v>
+        <v>0.0268</v>
       </c>
       <c r="E131" t="n">
         <v>10.12</v>
@@ -3340,7 +3340,7 @@
         <v>956</v>
       </c>
       <c r="D132" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="E132" t="n">
         <v>13.16</v>
@@ -3362,7 +3362,7 @@
         <v>829</v>
       </c>
       <c r="D133" t="n">
-        <v>2.17</v>
+        <v>0.0217</v>
       </c>
       <c r="E133" t="n">
         <v>11.43</v>
@@ -3384,7 +3384,7 @@
         <v>850</v>
       </c>
       <c r="D134" t="n">
-        <v>2.82</v>
+        <v>0.0282</v>
       </c>
       <c r="E134" t="n">
         <v>9.83</v>
@@ -3406,7 +3406,7 @@
         <v>787</v>
       </c>
       <c r="D135" t="n">
-        <v>2.29</v>
+        <v>0.0229</v>
       </c>
       <c r="E135" t="n">
         <v>10.66</v>
@@ -3428,7 +3428,7 @@
         <v>1042</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54</v>
+        <v>0.0154</v>
       </c>
       <c r="E136" t="n">
         <v>18.63</v>
@@ -3450,7 +3450,7 @@
         <v>872</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E137" t="n">
         <v>16.2</v>
@@ -3472,7 +3472,7 @@
         <v>769</v>
       </c>
       <c r="D138" t="n">
-        <v>4.42</v>
+        <v>0.0442</v>
       </c>
       <c r="E138" t="n">
         <v>11.02</v>
@@ -3494,7 +3494,7 @@
         <v>939</v>
       </c>
       <c r="D139" t="n">
-        <v>2.56</v>
+        <v>0.0256</v>
       </c>
       <c r="E139" t="n">
         <v>15.62</v>
@@ -3516,7 +3516,7 @@
         <v>679</v>
       </c>
       <c r="D140" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="E140" t="n">
         <v>11.94</v>
@@ -3538,7 +3538,7 @@
         <v>806</v>
       </c>
       <c r="D141" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="E141" t="n">
         <v>11.41</v>
@@ -3560,7 +3560,7 @@
         <v>804</v>
       </c>
       <c r="D142" t="n">
-        <v>3.23</v>
+        <v>0.0323</v>
       </c>
       <c r="E142" t="n">
         <v>11.45</v>
@@ -3582,7 +3582,7 @@
         <v>1075</v>
       </c>
       <c r="D143" t="n">
-        <v>2.23</v>
+        <v>0.0223</v>
       </c>
       <c r="E143" t="n">
         <v>16.29</v>
@@ -3604,7 +3604,7 @@
         <v>808</v>
       </c>
       <c r="D144" t="n">
-        <v>2.97</v>
+        <v>0.0297</v>
       </c>
       <c r="E144" t="n">
         <v>11.51</v>
@@ -3626,7 +3626,7 @@
         <v>854</v>
       </c>
       <c r="D145" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="E145" t="n">
         <v>11.57</v>
@@ -3648,7 +3648,7 @@
         <v>938</v>
       </c>
       <c r="D146" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="E146" t="n">
         <v>15.32</v>
@@ -3670,7 +3670,7 @@
         <v>923</v>
       </c>
       <c r="D147" t="n">
-        <v>2.71</v>
+        <v>0.0271</v>
       </c>
       <c r="E147" t="n">
         <v>11.92</v>
@@ -3692,7 +3692,7 @@
         <v>770</v>
       </c>
       <c r="D148" t="n">
-        <v>2.99</v>
+        <v>0.0299</v>
       </c>
       <c r="E148" t="n">
         <v>8.24</v>
@@ -3714,7 +3714,7 @@
         <v>986</v>
       </c>
       <c r="D149" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="E149" t="n">
         <v>13.73</v>
@@ -3736,7 +3736,7 @@
         <v>1014</v>
       </c>
       <c r="D150" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="E150" t="n">
         <v>10.91</v>
@@ -3758,7 +3758,7 @@
         <v>877</v>
       </c>
       <c r="D151" t="n">
-        <v>3.65</v>
+        <v>0.0365</v>
       </c>
       <c r="E151" t="n">
         <v>7.98</v>
@@ -3780,7 +3780,7 @@
         <v>916</v>
       </c>
       <c r="D152" t="n">
-        <v>4.48</v>
+        <v>0.0448</v>
       </c>
       <c r="E152" t="n">
         <v>10.11</v>
@@ -3802,7 +3802,7 @@
         <v>861</v>
       </c>
       <c r="D153" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E153" t="n">
         <v>10.52</v>
@@ -3824,7 +3824,7 @@
         <v>840</v>
       </c>
       <c r="D154" t="n">
-        <v>2.74</v>
+        <v>0.0274</v>
       </c>
       <c r="E154" t="n">
         <v>8.210000000000001</v>
@@ -3846,7 +3846,7 @@
         <v>880</v>
       </c>
       <c r="D155" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="E155" t="n">
         <v>7.92</v>
@@ -3868,7 +3868,7 @@
         <v>872</v>
       </c>
       <c r="D156" t="n">
-        <v>3.44</v>
+        <v>0.0344</v>
       </c>
       <c r="E156" t="n">
         <v>8.44</v>
@@ -3890,7 +3890,7 @@
         <v>958</v>
       </c>
       <c r="D157" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="E157" t="n">
         <v>8.27</v>
@@ -3912,7 +3912,7 @@
         <v>893</v>
       </c>
       <c r="D158" t="n">
-        <v>3.58</v>
+        <v>0.0358</v>
       </c>
       <c r="E158" t="n">
         <v>7.95</v>
@@ -3934,7 +3934,7 @@
         <v>1004</v>
       </c>
       <c r="D159" t="n">
-        <v>2.69</v>
+        <v>0.0269</v>
       </c>
       <c r="E159" t="n">
         <v>7.79</v>
@@ -3956,7 +3956,7 @@
         <v>979</v>
       </c>
       <c r="D160" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="E160" t="n">
         <v>10.09</v>
@@ -3978,7 +3978,7 @@
         <v>1010</v>
       </c>
       <c r="D161" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="E161" t="n">
         <v>9.57</v>
@@ -4000,7 +4000,7 @@
         <v>1074</v>
       </c>
       <c r="D162" t="n">
-        <v>3.07</v>
+        <v>0.0307</v>
       </c>
       <c r="E162" t="n">
         <v>8.1</v>
@@ -4022,7 +4022,7 @@
         <v>940</v>
       </c>
       <c r="D163" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="E163" t="n">
         <v>11.99</v>
@@ -4044,7 +4044,7 @@
         <v>926</v>
       </c>
       <c r="D164" t="n">
-        <v>3.89</v>
+        <v>0.0389</v>
       </c>
       <c r="E164" t="n">
         <v>10.57</v>
@@ -4066,7 +4066,7 @@
         <v>894</v>
       </c>
       <c r="D165" t="n">
-        <v>2.57</v>
+        <v>0.0257</v>
       </c>
       <c r="E165" t="n">
         <v>7.98</v>
@@ -4088,7 +4088,7 @@
         <v>975</v>
       </c>
       <c r="D166" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="E166" t="n">
         <v>8.380000000000001</v>
@@ -4110,7 +4110,7 @@
         <v>956</v>
       </c>
       <c r="D167" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="E167" t="n">
         <v>9.34</v>
@@ -4132,7 +4132,7 @@
         <v>1110</v>
       </c>
       <c r="D168" t="n">
-        <v>2.88</v>
+        <v>0.0288</v>
       </c>
       <c r="E168" t="n">
         <v>10.06</v>
@@ -4154,7 +4154,7 @@
         <v>986</v>
       </c>
       <c r="D169" t="n">
-        <v>2.54</v>
+        <v>0.0254</v>
       </c>
       <c r="E169" t="n">
         <v>10.17</v>
@@ -4176,7 +4176,7 @@
         <v>1047</v>
       </c>
       <c r="D170" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="E170" t="n">
         <v>9.359999999999999</v>
@@ -4198,7 +4198,7 @@
         <v>1079</v>
       </c>
       <c r="D171" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="E171" t="n">
         <v>9.33</v>
@@ -4220,7 +4220,7 @@
         <v>1039</v>
       </c>
       <c r="D172" t="n">
-        <v>3.18</v>
+        <v>0.0318</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -4242,7 +4242,7 @@
         <v>1156</v>
       </c>
       <c r="D173" t="n">
-        <v>2.68</v>
+        <v>0.0268</v>
       </c>
       <c r="E173" t="n">
         <v>9.890000000000001</v>
@@ -4264,7 +4264,7 @@
         <v>1038</v>
       </c>
       <c r="D174" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="E174" t="n">
         <v>11.03</v>
@@ -4286,7 +4286,7 @@
         <v>1016</v>
       </c>
       <c r="D175" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="E175" t="n">
         <v>10.39</v>
@@ -4308,7 +4308,7 @@
         <v>978</v>
       </c>
       <c r="D176" t="n">
-        <v>2.56</v>
+        <v>0.0256</v>
       </c>
       <c r="E176" t="n">
         <v>9.31</v>
@@ -4330,7 +4330,7 @@
         <v>982</v>
       </c>
       <c r="D177" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="E177" t="n">
         <v>9.300000000000001</v>
@@ -4352,7 +4352,7 @@
         <v>1128</v>
       </c>
       <c r="D178" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="E178" t="n">
         <v>10.88</v>
@@ -4374,7 +4374,7 @@
         <v>1797</v>
       </c>
       <c r="D179" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E179" t="n">
         <v>15.45</v>
@@ -4396,7 +4396,7 @@
         <v>1112</v>
       </c>
       <c r="D180" t="n">
-        <v>3.24</v>
+        <v>0.0324</v>
       </c>
       <c r="E180" t="n">
         <v>8.51</v>
@@ -4418,7 +4418,7 @@
         <v>1099</v>
       </c>
       <c r="D181" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E181" t="n">
         <v>11.02</v>
@@ -4440,7 +4440,7 @@
         <v>979</v>
       </c>
       <c r="D182" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E182" t="n">
         <v>9.76</v>
@@ -4462,7 +4462,7 @@
         <v>911</v>
       </c>
       <c r="D183" t="n">
-        <v>2.96</v>
+        <v>0.0296</v>
       </c>
       <c r="E183" t="n">
         <v>8.42</v>
@@ -4484,7 +4484,7 @@
         <v>923</v>
       </c>
       <c r="D184" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="E184" t="n">
         <v>9.19</v>
@@ -4506,7 +4506,7 @@
         <v>1006</v>
       </c>
       <c r="D185" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="E185" t="n">
         <v>11.05</v>
@@ -4528,7 +4528,7 @@
         <v>334</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="E186" t="n">
         <v>19.1</v>
@@ -4550,7 +4550,7 @@
         <v>236</v>
       </c>
       <c r="D187" t="n">
-        <v>0.42</v>
+        <v>0.0042</v>
       </c>
       <c r="E187" t="n">
         <v>16.83</v>
@@ -4572,7 +4572,7 @@
         <v>350</v>
       </c>
       <c r="D188" t="n">
-        <v>0.57</v>
+        <v>0.0057</v>
       </c>
       <c r="E188" t="n">
         <v>14.65</v>
@@ -4616,7 +4616,7 @@
         <v>337</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3</v>
+        <v>0.003</v>
       </c>
       <c r="E190" t="n">
         <v>17.28</v>
@@ -4638,7 +4638,7 @@
         <v>318</v>
       </c>
       <c r="D191" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="E191" t="n">
         <v>20.19</v>
@@ -4660,7 +4660,7 @@
         <v>238</v>
       </c>
       <c r="D192" t="n">
-        <v>1.26</v>
+        <v>0.0126</v>
       </c>
       <c r="E192" t="n">
         <v>16.66</v>
@@ -4682,7 +4682,7 @@
         <v>335</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="E193" t="n">
         <v>15.48</v>
@@ -4704,7 +4704,7 @@
         <v>332</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="E194" t="n">
         <v>16.46</v>
@@ -4726,7 +4726,7 @@
         <v>74</v>
       </c>
       <c r="D195" t="n">
-        <v>4.05</v>
+        <v>0.0405</v>
       </c>
       <c r="E195" t="n">
         <v>20.15</v>
@@ -4748,7 +4748,7 @@
         <v>133</v>
       </c>
       <c r="D196" t="n">
-        <v>0.75</v>
+        <v>0.0075</v>
       </c>
       <c r="E196" t="n">
         <v>30.31</v>
@@ -4814,7 +4814,7 @@
         <v>424</v>
       </c>
       <c r="D199" t="n">
-        <v>0.24</v>
+        <v>0.0024</v>
       </c>
       <c r="E199" t="n">
         <v>14.13</v>
@@ -4836,7 +4836,7 @@
         <v>75</v>
       </c>
       <c r="D200" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E200" t="n">
         <v>17.57</v>
@@ -4858,7 +4858,7 @@
         <v>256</v>
       </c>
       <c r="D201" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E201" t="n">
         <v>13.65</v>
@@ -4880,7 +4880,7 @@
         <v>89</v>
       </c>
       <c r="D202" t="n">
-        <v>2.25</v>
+        <v>0.0225</v>
       </c>
       <c r="E202" t="n">
         <v>11.55</v>
@@ -4902,7 +4902,7 @@
         <v>204</v>
       </c>
       <c r="D203" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="E203" t="n">
         <v>11.32</v>
@@ -4924,7 +4924,7 @@
         <v>127</v>
       </c>
       <c r="D204" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="E204" t="n">
         <v>11.47</v>
@@ -4946,7 +4946,7 @@
         <v>170</v>
       </c>
       <c r="D205" t="n">
-        <v>1.18</v>
+        <v>0.0118</v>
       </c>
       <c r="E205" t="n">
         <v>12.89</v>
@@ -4990,7 +4990,7 @@
         <v>151</v>
       </c>
       <c r="D207" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E207" t="n">
         <v>14.75</v>
@@ -5012,7 +5012,7 @@
         <v>117</v>
       </c>
       <c r="D208" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E208" t="n">
         <v>18.38</v>
@@ -5056,7 +5056,7 @@
         <v>172</v>
       </c>
       <c r="D210" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="E210" t="n">
         <v>15.63</v>
@@ -5078,7 +5078,7 @@
         <v>174</v>
       </c>
       <c r="D211" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="E211" t="n">
         <v>17.71</v>
@@ -5100,7 +5100,7 @@
         <v>150</v>
       </c>
       <c r="D212" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E212" t="n">
         <v>15.15</v>
@@ -5122,7 +5122,7 @@
         <v>147</v>
       </c>
       <c r="D213" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="E213" t="n">
         <v>13.18</v>
@@ -5144,7 +5144,7 @@
         <v>118</v>
       </c>
       <c r="D214" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E214" t="n">
         <v>11.86</v>
@@ -5166,7 +5166,7 @@
         <v>132</v>
       </c>
       <c r="D215" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E215" t="n">
         <v>13.35</v>
@@ -5188,7 +5188,7 @@
         <v>117</v>
       </c>
       <c r="D216" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E216" t="n">
         <v>9.539999999999999</v>
@@ -5210,7 +5210,7 @@
         <v>165</v>
       </c>
       <c r="D217" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="E217" t="n">
         <v>11.1</v>
@@ -5276,7 +5276,7 @@
         <v>161</v>
       </c>
       <c r="D220" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E220" t="n">
         <v>15.14</v>
@@ -5298,7 +5298,7 @@
         <v>171</v>
       </c>
       <c r="D221" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="E221" t="n">
         <v>17.35</v>
@@ -5320,7 +5320,7 @@
         <v>149</v>
       </c>
       <c r="D222" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="E222" t="n">
         <v>11.92</v>
@@ -5342,7 +5342,7 @@
         <v>115</v>
       </c>
       <c r="D223" t="n">
-        <v>2.61</v>
+        <v>0.0261</v>
       </c>
       <c r="E223" t="n">
         <v>12.03</v>
@@ -5364,7 +5364,7 @@
         <v>146</v>
       </c>
       <c r="D224" t="n">
-        <v>1.37</v>
+        <v>0.0137</v>
       </c>
       <c r="E224" t="n">
         <v>11.89</v>
@@ -5408,7 +5408,7 @@
         <v>143</v>
       </c>
       <c r="D226" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="E226" t="n">
         <v>11.8</v>
@@ -5430,7 +5430,7 @@
         <v>107</v>
       </c>
       <c r="D227" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E227" t="n">
         <v>16.36</v>
@@ -5474,7 +5474,7 @@
         <v>183</v>
       </c>
       <c r="D229" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="E229" t="n">
         <v>22.08</v>
@@ -5496,7 +5496,7 @@
         <v>136</v>
       </c>
       <c r="D230" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="E230" t="n">
         <v>11.92</v>
@@ -5540,7 +5540,7 @@
         <v>157</v>
       </c>
       <c r="D232" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="E232" t="n">
         <v>16.62</v>
@@ -5562,7 +5562,7 @@
         <v>117</v>
       </c>
       <c r="D233" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E233" t="n">
         <v>13.52</v>
@@ -5584,7 +5584,7 @@
         <v>143</v>
       </c>
       <c r="D234" t="n">
-        <v>2.8</v>
+        <v>0.028</v>
       </c>
       <c r="E234" t="n">
         <v>13.27</v>
@@ -5606,7 +5606,7 @@
         <v>139</v>
       </c>
       <c r="D235" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="E235" t="n">
         <v>11.78</v>
@@ -5628,7 +5628,7 @@
         <v>186</v>
       </c>
       <c r="D236" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="E236" t="n">
         <v>14.16</v>
@@ -5672,7 +5672,7 @@
         <v>168</v>
       </c>
       <c r="D238" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E238" t="n">
         <v>14.2</v>
@@ -5694,7 +5694,7 @@
         <v>157</v>
       </c>
       <c r="D239" t="n">
-        <v>2.55</v>
+        <v>0.0255</v>
       </c>
       <c r="E239" t="n">
         <v>12.41</v>
@@ -5716,7 +5716,7 @@
         <v>107</v>
       </c>
       <c r="D240" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E240" t="n">
         <v>13.29</v>
@@ -5738,7 +5738,7 @@
         <v>144</v>
       </c>
       <c r="D241" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="E241" t="n">
         <v>9.94</v>
@@ -5804,7 +5804,7 @@
         <v>95</v>
       </c>
       <c r="D244" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="E244" t="n">
         <v>9.6</v>
@@ -5848,7 +5848,7 @@
         <v>163</v>
       </c>
       <c r="D246" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="E246" t="n">
         <v>14.8</v>
@@ -5870,7 +5870,7 @@
         <v>156</v>
       </c>
       <c r="D247" t="n">
-        <v>0.64</v>
+        <v>0.0064</v>
       </c>
       <c r="E247" t="n">
         <v>21.46</v>
@@ -5892,7 +5892,7 @@
         <v>96</v>
       </c>
       <c r="D248" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="E248" t="n">
         <v>10.55</v>
@@ -5914,7 +5914,7 @@
         <v>101</v>
       </c>
       <c r="D249" t="n">
-        <v>0.99</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="E249" t="n">
         <v>23.81</v>
@@ -5936,7 +5936,7 @@
         <v>118</v>
       </c>
       <c r="D250" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E250" t="n">
         <v>10.86</v>
@@ -5958,7 +5958,7 @@
         <v>69</v>
       </c>
       <c r="D251" t="n">
-        <v>2.9</v>
+        <v>0.029</v>
       </c>
       <c r="E251" t="n">
         <v>8.130000000000001</v>
@@ -5980,7 +5980,7 @@
         <v>128</v>
       </c>
       <c r="D252" t="n">
-        <v>0.78</v>
+        <v>0.0078</v>
       </c>
       <c r="E252" t="n">
         <v>16.37</v>
@@ -6002,7 +6002,7 @@
         <v>127</v>
       </c>
       <c r="D253" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E253" t="n">
         <v>10.4</v>
@@ -6024,7 +6024,7 @@
         <v>83</v>
       </c>
       <c r="D254" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="E254" t="n">
         <v>21.69</v>
@@ -6068,7 +6068,7 @@
         <v>148</v>
       </c>
       <c r="D256" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E256" t="n">
         <v>19.18</v>
@@ -6090,7 +6090,7 @@
         <v>92</v>
       </c>
       <c r="D257" t="n">
-        <v>2.17</v>
+        <v>0.0217</v>
       </c>
       <c r="E257" t="n">
         <v>6.99</v>
@@ -6112,7 +6112,7 @@
         <v>85</v>
       </c>
       <c r="D258" t="n">
-        <v>4.71</v>
+        <v>0.0471</v>
       </c>
       <c r="E258" t="n">
         <v>9.42</v>
@@ -6134,7 +6134,7 @@
         <v>94</v>
       </c>
       <c r="D259" t="n">
-        <v>1.06</v>
+        <v>0.0106</v>
       </c>
       <c r="E259" t="n">
         <v>9.390000000000001</v>
@@ -6156,7 +6156,7 @@
         <v>110</v>
       </c>
       <c r="D260" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="E260" t="n">
         <v>9.85</v>
@@ -6178,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="D261" t="n">
-        <v>9.460000000000001</v>
+        <v>0.0946</v>
       </c>
       <c r="E261" t="n">
         <v>8.19</v>
@@ -6200,7 +6200,7 @@
         <v>123</v>
       </c>
       <c r="D262" t="n">
-        <v>2.44</v>
+        <v>0.0244</v>
       </c>
       <c r="E262" t="n">
         <v>10.98</v>
@@ -6222,7 +6222,7 @@
         <v>121</v>
       </c>
       <c r="D263" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="E263" t="n">
         <v>9.119999999999999</v>
@@ -6244,7 +6244,7 @@
         <v>114</v>
       </c>
       <c r="D264" t="n">
-        <v>2.63</v>
+        <v>0.0263</v>
       </c>
       <c r="E264" t="n">
         <v>11.25</v>
@@ -6266,7 +6266,7 @@
         <v>88</v>
       </c>
       <c r="D265" t="n">
-        <v>3.41</v>
+        <v>0.0341</v>
       </c>
       <c r="E265" t="n">
         <v>9.93</v>
@@ -6288,7 +6288,7 @@
         <v>145</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="E266" t="n">
         <v>10.26</v>
@@ -6310,7 +6310,7 @@
         <v>135</v>
       </c>
       <c r="D267" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="E267" t="n">
         <v>15.88</v>
@@ -6332,7 +6332,7 @@
         <v>124</v>
       </c>
       <c r="D268" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="E268" t="n">
         <v>19.98</v>
@@ -6354,7 +6354,7 @@
         <v>186</v>
       </c>
       <c r="D269" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="E269" t="n">
         <v>11.48</v>
@@ -6376,7 +6376,7 @@
         <v>173</v>
       </c>
       <c r="D270" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="E270" t="n">
         <v>19.77</v>
@@ -6398,7 +6398,7 @@
         <v>243</v>
       </c>
       <c r="D271" t="n">
-        <v>0.41</v>
+        <v>0.0041</v>
       </c>
       <c r="E271" t="n">
         <v>12.93</v>
@@ -6420,7 +6420,7 @@
         <v>107</v>
       </c>
       <c r="D272" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E272" t="n">
         <v>8.210000000000001</v>
@@ -6442,7 +6442,7 @@
         <v>178</v>
       </c>
       <c r="D273" t="n">
-        <v>1.12</v>
+        <v>0.0112</v>
       </c>
       <c r="E273" t="n">
         <v>13.59</v>
@@ -6464,7 +6464,7 @@
         <v>158</v>
       </c>
       <c r="D274" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="E274" t="n">
         <v>14.51</v>
@@ -6486,7 +6486,7 @@
         <v>124</v>
       </c>
       <c r="D275" t="n">
-        <v>4.84</v>
+        <v>0.0484</v>
       </c>
       <c r="E275" t="n">
         <v>10.43</v>
@@ -6508,7 +6508,7 @@
         <v>147</v>
       </c>
       <c r="D276" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="E276" t="n">
         <v>9.220000000000001</v>
@@ -6530,7 +6530,7 @@
         <v>148</v>
       </c>
       <c r="D277" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="E277" t="n">
         <v>16.11</v>
@@ -6552,7 +6552,7 @@
         <v>2738</v>
       </c>
       <c r="D278" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E278" t="n">
         <v>18.62</v>
@@ -6574,7 +6574,7 @@
         <v>2370</v>
       </c>
       <c r="D279" t="n">
-        <v>1.65</v>
+        <v>0.0165</v>
       </c>
       <c r="E279" t="n">
         <v>18.12</v>
@@ -6596,7 +6596,7 @@
         <v>2929</v>
       </c>
       <c r="D280" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="E280" t="n">
         <v>18.06</v>
@@ -6618,7 +6618,7 @@
         <v>2485</v>
       </c>
       <c r="D281" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="E281" t="n">
         <v>19.92</v>
@@ -6640,7 +6640,7 @@
         <v>2833</v>
       </c>
       <c r="D282" t="n">
-        <v>1.16</v>
+        <v>0.0116</v>
       </c>
       <c r="E282" t="n">
         <v>20.56</v>
@@ -6662,7 +6662,7 @@
         <v>2666</v>
       </c>
       <c r="D283" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="E283" t="n">
         <v>19.66</v>
@@ -6684,7 +6684,7 @@
         <v>2377</v>
       </c>
       <c r="D284" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="E284" t="n">
         <v>18.48</v>
@@ -6706,7 +6706,7 @@
         <v>2900</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E285" t="n">
         <v>20.74</v>
@@ -6728,7 +6728,7 @@
         <v>2806</v>
       </c>
       <c r="D286" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E286" t="n">
         <v>19.14</v>
@@ -6750,7 +6750,7 @@
         <v>2321</v>
       </c>
       <c r="D287" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="E287" t="n">
         <v>20.43</v>
@@ -6772,7 +6772,7 @@
         <v>2204</v>
       </c>
       <c r="D288" t="n">
-        <v>1.18</v>
+        <v>0.0118</v>
       </c>
       <c r="E288" t="n">
         <v>23.61</v>
@@ -6794,7 +6794,7 @@
         <v>2147</v>
       </c>
       <c r="D289" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="E289" t="n">
         <v>21.99</v>
@@ -6816,7 +6816,7 @@
         <v>2628</v>
       </c>
       <c r="D290" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E290" t="n">
         <v>20.57</v>
@@ -6838,7 +6838,7 @@
         <v>3004</v>
       </c>
       <c r="D291" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="E291" t="n">
         <v>19.72</v>
@@ -6860,7 +6860,7 @@
         <v>1902</v>
       </c>
       <c r="D292" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="E292" t="n">
         <v>20.5</v>
@@ -6882,7 +6882,7 @@
         <v>2234</v>
       </c>
       <c r="D293" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E293" t="n">
         <v>19.17</v>
@@ -6904,7 +6904,7 @@
         <v>2034</v>
       </c>
       <c r="D294" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="E294" t="n">
         <v>20.58</v>
@@ -6926,7 +6926,7 @@
         <v>2296</v>
       </c>
       <c r="D295" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="E295" t="n">
         <v>21.82</v>
@@ -6948,7 +6948,7 @@
         <v>2004</v>
       </c>
       <c r="D296" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E296" t="n">
         <v>20.82</v>
@@ -6970,7 +6970,7 @@
         <v>1884</v>
       </c>
       <c r="D297" t="n">
-        <v>1.27</v>
+        <v>0.0127</v>
       </c>
       <c r="E297" t="n">
         <v>18.28</v>
@@ -6992,7 +6992,7 @@
         <v>1818</v>
       </c>
       <c r="D298" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="E298" t="n">
         <v>19.85</v>
@@ -7014,7 +7014,7 @@
         <v>2156</v>
       </c>
       <c r="D299" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="E299" t="n">
         <v>22.95</v>
@@ -7036,7 +7036,7 @@
         <v>2106</v>
       </c>
       <c r="D300" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E300" t="n">
         <v>19.64</v>
@@ -7058,7 +7058,7 @@
         <v>1942</v>
       </c>
       <c r="D301" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="E301" t="n">
         <v>18.46</v>
@@ -7080,7 +7080,7 @@
         <v>1931</v>
       </c>
       <c r="D302" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="E302" t="n">
         <v>20.4</v>
@@ -7102,7 +7102,7 @@
         <v>1909</v>
       </c>
       <c r="D303" t="n">
-        <v>1.26</v>
+        <v>0.0126</v>
       </c>
       <c r="E303" t="n">
         <v>21.2</v>
@@ -7124,7 +7124,7 @@
         <v>2077</v>
       </c>
       <c r="D304" t="n">
-        <v>1.54</v>
+        <v>0.0154</v>
       </c>
       <c r="E304" t="n">
         <v>20.63</v>
@@ -7146,7 +7146,7 @@
         <v>1722</v>
       </c>
       <c r="D305" t="n">
-        <v>2.21</v>
+        <v>0.0221</v>
       </c>
       <c r="E305" t="n">
         <v>16.14</v>
@@ -7168,7 +7168,7 @@
         <v>1860</v>
       </c>
       <c r="D306" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="E306" t="n">
         <v>19.25</v>
@@ -7190,7 +7190,7 @@
         <v>1899</v>
       </c>
       <c r="D307" t="n">
-        <v>2.11</v>
+        <v>0.0211</v>
       </c>
       <c r="E307" t="n">
         <v>17.71</v>
@@ -7212,7 +7212,7 @@
         <v>1900</v>
       </c>
       <c r="D308" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E308" t="n">
         <v>20.67</v>
@@ -7234,7 +7234,7 @@
         <v>1735</v>
       </c>
       <c r="D309" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E309" t="n">
         <v>19.55</v>
@@ -7256,7 +7256,7 @@
         <v>1702</v>
       </c>
       <c r="D310" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E310" t="n">
         <v>20.78</v>
@@ -7278,7 +7278,7 @@
         <v>1865</v>
       </c>
       <c r="D311" t="n">
-        <v>2.52</v>
+        <v>0.0252</v>
       </c>
       <c r="E311" t="n">
         <v>19.52</v>
@@ -7300,7 +7300,7 @@
         <v>2030</v>
       </c>
       <c r="D312" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="E312" t="n">
         <v>19.99</v>
@@ -7322,7 +7322,7 @@
         <v>1749</v>
       </c>
       <c r="D313" t="n">
-        <v>1.66</v>
+        <v>0.0166</v>
       </c>
       <c r="E313" t="n">
         <v>21.53</v>
@@ -7344,7 +7344,7 @@
         <v>1544</v>
       </c>
       <c r="D314" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E314" t="n">
         <v>21.43</v>
@@ -7366,7 +7366,7 @@
         <v>1815</v>
       </c>
       <c r="D315" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="E315" t="n">
         <v>18.36</v>
@@ -7388,7 +7388,7 @@
         <v>1701</v>
       </c>
       <c r="D316" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E316" t="n">
         <v>19.74</v>
@@ -7410,7 +7410,7 @@
         <v>1897</v>
       </c>
       <c r="D317" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E317" t="n">
         <v>20.65</v>
@@ -7432,7 +7432,7 @@
         <v>1989</v>
       </c>
       <c r="D318" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E318" t="n">
         <v>20.84</v>
@@ -7454,7 +7454,7 @@
         <v>1753</v>
       </c>
       <c r="D319" t="n">
-        <v>1.65</v>
+        <v>0.0165</v>
       </c>
       <c r="E319" t="n">
         <v>19.75</v>
@@ -7476,7 +7476,7 @@
         <v>1522</v>
       </c>
       <c r="D320" t="n">
-        <v>1.12</v>
+        <v>0.0112</v>
       </c>
       <c r="E320" t="n">
         <v>22.65</v>
@@ -7498,7 +7498,7 @@
         <v>1742</v>
       </c>
       <c r="D321" t="n">
-        <v>1.26</v>
+        <v>0.0126</v>
       </c>
       <c r="E321" t="n">
         <v>25.28</v>
@@ -7520,7 +7520,7 @@
         <v>1553</v>
       </c>
       <c r="D322" t="n">
-        <v>2.12</v>
+        <v>0.0212</v>
       </c>
       <c r="E322" t="n">
         <v>20.45</v>
@@ -7542,7 +7542,7 @@
         <v>1882</v>
       </c>
       <c r="D323" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="E323" t="n">
         <v>23.9</v>
@@ -7564,7 +7564,7 @@
         <v>1851</v>
       </c>
       <c r="D324" t="n">
-        <v>1.67</v>
+        <v>0.0167</v>
       </c>
       <c r="E324" t="n">
         <v>22.64</v>
@@ -7586,7 +7586,7 @@
         <v>2106</v>
       </c>
       <c r="D325" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E325" t="n">
         <v>21.99</v>
@@ -7608,7 +7608,7 @@
         <v>1761</v>
       </c>
       <c r="D326" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="E326" t="n">
         <v>20.62</v>
@@ -7630,7 +7630,7 @@
         <v>2007</v>
       </c>
       <c r="D327" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="E327" t="n">
         <v>20.3</v>
@@ -7652,7 +7652,7 @@
         <v>1790</v>
       </c>
       <c r="D328" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="E328" t="n">
         <v>21.03</v>
@@ -7674,7 +7674,7 @@
         <v>1905</v>
       </c>
       <c r="D329" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="E329" t="n">
         <v>19.09</v>
@@ -7696,7 +7696,7 @@
         <v>1724</v>
       </c>
       <c r="D330" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="E330" t="n">
         <v>20.43</v>
@@ -7718,7 +7718,7 @@
         <v>1897</v>
       </c>
       <c r="D331" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="E331" t="n">
         <v>21.52</v>
@@ -7740,7 +7740,7 @@
         <v>2176</v>
       </c>
       <c r="D332" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="E332" t="n">
         <v>21.44</v>
@@ -7762,7 +7762,7 @@
         <v>2744</v>
       </c>
       <c r="D333" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="E333" t="n">
         <v>22.01</v>
@@ -7784,7 +7784,7 @@
         <v>2716</v>
       </c>
       <c r="D334" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E334" t="n">
         <v>22.79</v>
@@ -7806,7 +7806,7 @@
         <v>2654</v>
       </c>
       <c r="D335" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E335" t="n">
         <v>21.4</v>
@@ -7828,7 +7828,7 @@
         <v>2687</v>
       </c>
       <c r="D336" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="E336" t="n">
         <v>22.42</v>
@@ -7850,7 +7850,7 @@
         <v>2435</v>
       </c>
       <c r="D337" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="E337" t="n">
         <v>22.91</v>
@@ -7872,7 +7872,7 @@
         <v>2591</v>
       </c>
       <c r="D338" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="E338" t="n">
         <v>23.33</v>
@@ -7894,7 +7894,7 @@
         <v>3319</v>
       </c>
       <c r="D339" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="E339" t="n">
         <v>24.32</v>
@@ -7916,7 +7916,7 @@
         <v>2698</v>
       </c>
       <c r="D340" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="E340" t="n">
         <v>20.78</v>
@@ -7938,7 +7938,7 @@
         <v>3107</v>
       </c>
       <c r="D341" t="n">
-        <v>1.67</v>
+        <v>0.0167</v>
       </c>
       <c r="E341" t="n">
         <v>22.57</v>
@@ -7960,7 +7960,7 @@
         <v>2799</v>
       </c>
       <c r="D342" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="E342" t="n">
         <v>19.81</v>
@@ -7982,7 +7982,7 @@
         <v>2906</v>
       </c>
       <c r="D343" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="E343" t="n">
         <v>20.26</v>
@@ -8004,7 +8004,7 @@
         <v>2498</v>
       </c>
       <c r="D344" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="E344" t="n">
         <v>19.31</v>
@@ -8026,7 +8026,7 @@
         <v>2411</v>
       </c>
       <c r="D345" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="E345" t="n">
         <v>20.4</v>
@@ -8048,7 +8048,7 @@
         <v>2543</v>
       </c>
       <c r="D346" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="E346" t="n">
         <v>22.96</v>
@@ -8070,7 +8070,7 @@
         <v>2375</v>
       </c>
       <c r="D347" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="E347" t="n">
         <v>21.57</v>
@@ -8092,7 +8092,7 @@
         <v>2518</v>
       </c>
       <c r="D348" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E348" t="n">
         <v>21.57</v>
@@ -8114,7 +8114,7 @@
         <v>2552</v>
       </c>
       <c r="D349" t="n">
-        <v>1.88</v>
+        <v>0.0188</v>
       </c>
       <c r="E349" t="n">
         <v>22.56</v>
@@ -8136,7 +8136,7 @@
         <v>2979</v>
       </c>
       <c r="D350" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E350" t="n">
         <v>22.65</v>
@@ -8158,7 +8158,7 @@
         <v>2488</v>
       </c>
       <c r="D351" t="n">
-        <v>2.01</v>
+        <v>0.0201</v>
       </c>
       <c r="E351" t="n">
         <v>22.4</v>
@@ -8180,7 +8180,7 @@
         <v>2454</v>
       </c>
       <c r="D352" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E352" t="n">
         <v>22.78</v>
@@ -8202,7 +8202,7 @@
         <v>2957</v>
       </c>
       <c r="D353" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="E353" t="n">
         <v>24.1</v>
@@ -8224,7 +8224,7 @@
         <v>3069</v>
       </c>
       <c r="D354" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="E354" t="n">
         <v>23.02</v>
@@ -8246,7 +8246,7 @@
         <v>3353</v>
       </c>
       <c r="D355" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E355" t="n">
         <v>21.7</v>
@@ -8268,7 +8268,7 @@
         <v>2798</v>
       </c>
       <c r="D356" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="E356" t="n">
         <v>21</v>
@@ -8290,7 +8290,7 @@
         <v>2889</v>
       </c>
       <c r="D357" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E357" t="n">
         <v>20.43</v>
@@ -8312,7 +8312,7 @@
         <v>2424</v>
       </c>
       <c r="D358" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="E358" t="n">
         <v>24.26</v>
@@ -8334,7 +8334,7 @@
         <v>2299</v>
       </c>
       <c r="D359" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E359" t="n">
         <v>23.43</v>
@@ -8356,7 +8356,7 @@
         <v>2428</v>
       </c>
       <c r="D360" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="E360" t="n">
         <v>22.9</v>
@@ -8378,7 +8378,7 @@
         <v>2548</v>
       </c>
       <c r="D361" t="n">
-        <v>1.65</v>
+        <v>0.0165</v>
       </c>
       <c r="E361" t="n">
         <v>21.96</v>
@@ -8400,7 +8400,7 @@
         <v>2655</v>
       </c>
       <c r="D362" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E362" t="n">
         <v>21.6</v>
@@ -8422,7 +8422,7 @@
         <v>2853</v>
       </c>
       <c r="D363" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E363" t="n">
         <v>22.51</v>
@@ -8444,7 +8444,7 @@
         <v>2433</v>
       </c>
       <c r="D364" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="E364" t="n">
         <v>20.87</v>
@@ -8466,7 +8466,7 @@
         <v>2248</v>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E365" t="n">
         <v>22.33</v>
@@ -8488,7 +8488,7 @@
         <v>2365</v>
       </c>
       <c r="D366" t="n">
-        <v>1.61</v>
+        <v>0.0161</v>
       </c>
       <c r="E366" t="n">
         <v>23.23</v>
@@ -8510,7 +8510,7 @@
         <v>2357</v>
       </c>
       <c r="D367" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="E367" t="n">
         <v>23.21</v>
@@ -8532,7 +8532,7 @@
         <v>2412</v>
       </c>
       <c r="D368" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="E368" t="n">
         <v>22.25</v>
@@ -8554,7 +8554,7 @@
         <v>2282</v>
       </c>
       <c r="D369" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E369" t="n">
         <v>22.36</v>
@@ -8576,7 +8576,7 @@
         <v>371375</v>
       </c>
       <c r="D370" t="n">
-        <v>1.73</v>
+        <v>0.0173</v>
       </c>
       <c r="E370" t="n">
         <v>23.8</v>
@@ -8598,7 +8598,7 @@
         <v>364427</v>
       </c>
       <c r="D371" t="n">
-        <v>2.05</v>
+        <v>0.0205</v>
       </c>
       <c r="E371" t="n">
         <v>21.81</v>
@@ -8620,7 +8620,7 @@
         <v>406310</v>
       </c>
       <c r="D372" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E372" t="n">
         <v>23.84</v>
@@ -8642,7 +8642,7 @@
         <v>394570</v>
       </c>
       <c r="D373" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E373" t="n">
         <v>32.08</v>
@@ -8664,7 +8664,7 @@
         <v>386067</v>
       </c>
       <c r="D374" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E374" t="n">
         <v>25.75</v>
@@ -8686,7 +8686,7 @@
         <v>394779</v>
       </c>
       <c r="D375" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="E375" t="n">
         <v>24.46</v>
@@ -8708,7 +8708,7 @@
         <v>335326</v>
       </c>
       <c r="D376" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E376" t="n">
         <v>21.25</v>
@@ -8730,7 +8730,7 @@
         <v>337710</v>
       </c>
       <c r="D377" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E377" t="n">
         <v>21.13</v>
@@ -8752,7 +8752,7 @@
         <v>337803</v>
       </c>
       <c r="D378" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E378" t="n">
         <v>20.49</v>
@@ -8774,7 +8774,7 @@
         <v>362788</v>
       </c>
       <c r="D379" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="E379" t="n">
         <v>20.06</v>
@@ -8796,7 +8796,7 @@
         <v>299582</v>
       </c>
       <c r="D380" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="E380" t="n">
         <v>23.85</v>
@@ -8818,7 +8818,7 @@
         <v>344929</v>
       </c>
       <c r="D381" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="E381" t="n">
         <v>23.11</v>
@@ -8840,7 +8840,7 @@
         <v>348667</v>
       </c>
       <c r="D382" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="E382" t="n">
         <v>20.94</v>
@@ -8862,7 +8862,7 @@
         <v>369411</v>
       </c>
       <c r="D383" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E383" t="n">
         <v>21.78</v>
@@ -8884,7 +8884,7 @@
         <v>337951</v>
       </c>
       <c r="D384" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="E384" t="n">
         <v>19.94</v>
@@ -8906,7 +8906,7 @@
         <v>389467</v>
       </c>
       <c r="D385" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="E385" t="n">
         <v>22.24</v>
@@ -8928,7 +8928,7 @@
         <v>393587</v>
       </c>
       <c r="D386" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="E386" t="n">
         <v>22.6</v>
@@ -8950,7 +8950,7 @@
         <v>349415</v>
       </c>
       <c r="D387" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E387" t="n">
         <v>24.93</v>
@@ -8972,7 +8972,7 @@
         <v>382740</v>
       </c>
       <c r="D388" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E388" t="n">
         <v>25.02</v>
@@ -8994,7 +8994,7 @@
         <v>376133</v>
       </c>
       <c r="D389" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E389" t="n">
         <v>23.01</v>
@@ -9016,7 +9016,7 @@
         <v>355588</v>
       </c>
       <c r="D390" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="E390" t="n">
         <v>19.45</v>
@@ -9038,7 +9038,7 @@
         <v>359937</v>
       </c>
       <c r="D391" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E391" t="n">
         <v>18.99</v>
@@ -9060,7 +9060,7 @@
         <v>400349</v>
       </c>
       <c r="D392" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E392" t="n">
         <v>21.15</v>
@@ -9082,7 +9082,7 @@
         <v>418300</v>
       </c>
       <c r="D393" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="E393" t="n">
         <v>20.61</v>
@@ -9104,7 +9104,7 @@
         <v>375151</v>
       </c>
       <c r="D394" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="E394" t="n">
         <v>27.59</v>
@@ -9126,7 +9126,7 @@
         <v>399783</v>
       </c>
       <c r="D395" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E395" t="n">
         <v>22.72</v>
@@ -9148,7 +9148,7 @@
         <v>382011</v>
       </c>
       <c r="D396" t="n">
-        <v>1.73</v>
+        <v>0.0173</v>
       </c>
       <c r="E396" t="n">
         <v>19.73</v>
@@ -9170,7 +9170,7 @@
         <v>373713</v>
       </c>
       <c r="D397" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="E397" t="n">
         <v>18.33</v>
@@ -9192,7 +9192,7 @@
         <v>388985</v>
       </c>
       <c r="D398" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E398" t="n">
         <v>19.01</v>
@@ -9214,7 +9214,7 @@
         <v>381231</v>
       </c>
       <c r="D399" t="n">
-        <v>2.34</v>
+        <v>0.0234</v>
       </c>
       <c r="E399" t="n">
         <v>17.44</v>
@@ -9236,7 +9236,7 @@
         <v>385058</v>
       </c>
       <c r="D400" t="n">
-        <v>2.35</v>
+        <v>0.0235</v>
       </c>
       <c r="E400" t="n">
         <v>17.22</v>
@@ -9258,7 +9258,7 @@
         <v>324945</v>
       </c>
       <c r="D401" t="n">
-        <v>2.11</v>
+        <v>0.0211</v>
       </c>
       <c r="E401" t="n">
         <v>23.28</v>
@@ -9280,7 +9280,7 @@
         <v>381896</v>
       </c>
       <c r="D402" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="E402" t="n">
         <v>20.02</v>
@@ -9302,7 +9302,7 @@
         <v>405654</v>
       </c>
       <c r="D403" t="n">
-        <v>2.19</v>
+        <v>0.0219</v>
       </c>
       <c r="E403" t="n">
         <v>18.07</v>
@@ -9324,7 +9324,7 @@
         <v>422691</v>
       </c>
       <c r="D404" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="E404" t="n">
         <v>19</v>
@@ -9346,7 +9346,7 @@
         <v>278249</v>
       </c>
       <c r="D405" t="n">
-        <v>2.14</v>
+        <v>0.0214</v>
       </c>
       <c r="E405" t="n">
         <v>20.3</v>
@@ -9368,7 +9368,7 @@
         <v>330597</v>
       </c>
       <c r="D406" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="E406" t="n">
         <v>20.12</v>
@@ -9390,7 +9390,7 @@
         <v>404166</v>
       </c>
       <c r="D407" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="E407" t="n">
         <v>18.34</v>
@@ -9412,7 +9412,7 @@
         <v>315956</v>
       </c>
       <c r="D408" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E408" t="n">
         <v>22.36</v>
@@ -9434,7 +9434,7 @@
         <v>401659</v>
       </c>
       <c r="D409" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E409" t="n">
         <v>23.32</v>
@@ -9456,7 +9456,7 @@
         <v>397932</v>
       </c>
       <c r="D410" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E410" t="n">
         <v>19.84</v>
@@ -9478,7 +9478,7 @@
         <v>384378</v>
       </c>
       <c r="D411" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="E411" t="n">
         <v>17.09</v>
@@ -9500,7 +9500,7 @@
         <v>233312</v>
       </c>
       <c r="D412" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="E412" t="n">
         <v>22.01</v>
@@ -9522,7 +9522,7 @@
         <v>289518</v>
       </c>
       <c r="D413" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E413" t="n">
         <v>20.76</v>
@@ -9544,7 +9544,7 @@
         <v>381543</v>
       </c>
       <c r="D414" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E414" t="n">
         <v>18.9</v>
@@ -9566,7 +9566,7 @@
         <v>355901</v>
       </c>
       <c r="D415" t="n">
-        <v>1.44</v>
+        <v>0.0144</v>
       </c>
       <c r="E415" t="n">
         <v>26.18</v>
@@ -9588,7 +9588,7 @@
         <v>387934</v>
       </c>
       <c r="D416" t="n">
-        <v>1.44</v>
+        <v>0.0144</v>
       </c>
       <c r="E416" t="n">
         <v>23</v>
@@ -9610,7 +9610,7 @@
         <v>387808</v>
       </c>
       <c r="D417" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="E417" t="n">
         <v>19.41</v>
@@ -9632,7 +9632,7 @@
         <v>342799</v>
       </c>
       <c r="D418" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="E418" t="n">
         <v>16.12</v>
@@ -9654,7 +9654,7 @@
         <v>371188</v>
       </c>
       <c r="D419" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="E419" t="n">
         <v>19.07</v>
@@ -9676,7 +9676,7 @@
         <v>394976</v>
       </c>
       <c r="D420" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E420" t="n">
         <v>20.42</v>
@@ -9698,7 +9698,7 @@
         <v>420100</v>
       </c>
       <c r="D421" t="n">
-        <v>1.81</v>
+        <v>0.0181</v>
       </c>
       <c r="E421" t="n">
         <v>19.98</v>
@@ -9720,7 +9720,7 @@
         <v>324725</v>
       </c>
       <c r="D422" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E422" t="n">
         <v>23.65</v>
@@ -9742,7 +9742,7 @@
         <v>383153</v>
       </c>
       <c r="D423" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E423" t="n">
         <v>20.99</v>
@@ -9764,7 +9764,7 @@
         <v>436104</v>
       </c>
       <c r="D424" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E424" t="n">
         <v>16.83</v>
@@ -9786,7 +9786,7 @@
         <v>494855</v>
       </c>
       <c r="D425" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E425" t="n">
         <v>18.5</v>
@@ -9808,7 +9808,7 @@
         <v>494625</v>
       </c>
       <c r="D426" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E426" t="n">
         <v>18.31</v>
@@ -9830,7 +9830,7 @@
         <v>503754</v>
       </c>
       <c r="D427" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="E427" t="n">
         <v>18.69</v>
@@ -9852,7 +9852,7 @@
         <v>536837</v>
       </c>
       <c r="D428" t="n">
-        <v>1.65</v>
+        <v>0.0165</v>
       </c>
       <c r="E428" t="n">
         <v>19.07</v>
@@ -9874,7 +9874,7 @@
         <v>415136</v>
       </c>
       <c r="D429" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E429" t="n">
         <v>23.16</v>
@@ -9896,7 +9896,7 @@
         <v>466653</v>
       </c>
       <c r="D430" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="E430" t="n">
         <v>20.93</v>
@@ -9918,7 +9918,7 @@
         <v>495159</v>
       </c>
       <c r="D431" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E431" t="n">
         <v>17.89</v>
@@ -9940,7 +9940,7 @@
         <v>528492</v>
       </c>
       <c r="D432" t="n">
-        <v>1.66</v>
+        <v>0.0166</v>
       </c>
       <c r="E432" t="n">
         <v>18.42</v>
@@ -9962,7 +9962,7 @@
         <v>534567</v>
       </c>
       <c r="D433" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="E433" t="n">
         <v>18.74</v>
@@ -9984,7 +9984,7 @@
         <v>499231</v>
       </c>
       <c r="D434" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="E434" t="n">
         <v>16.2</v>
@@ -10006,7 +10006,7 @@
         <v>601176</v>
       </c>
       <c r="D435" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E435" t="n">
         <v>17.35</v>
@@ -10028,7 +10028,7 @@
         <v>436745</v>
       </c>
       <c r="D436" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="E436" t="n">
         <v>20.44</v>
@@ -10050,7 +10050,7 @@
         <v>493974</v>
       </c>
       <c r="D437" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E437" t="n">
         <v>19.92</v>
@@ -10072,7 +10072,7 @@
         <v>533883</v>
       </c>
       <c r="D438" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="E438" t="n">
         <v>16.13</v>
@@ -10094,7 +10094,7 @@
         <v>359087</v>
       </c>
       <c r="D439" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E439" t="n">
         <v>20.21</v>
@@ -10116,7 +10116,7 @@
         <v>511430</v>
       </c>
       <c r="D440" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E440" t="n">
         <v>17.94</v>
@@ -10138,7 +10138,7 @@
         <v>565104</v>
       </c>
       <c r="D441" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E441" t="n">
         <v>17.52</v>
@@ -10160,7 +10160,7 @@
         <v>584607</v>
       </c>
       <c r="D442" t="n">
-        <v>1.73</v>
+        <v>0.0173</v>
       </c>
       <c r="E442" t="n">
         <v>16.77</v>
@@ -10182,7 +10182,7 @@
         <v>445161</v>
       </c>
       <c r="D443" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E443" t="n">
         <v>20.4</v>
@@ -10204,7 +10204,7 @@
         <v>505781</v>
       </c>
       <c r="D444" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="E444" t="n">
         <v>18.72</v>
@@ -10226,7 +10226,7 @@
         <v>580406</v>
       </c>
       <c r="D445" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E445" t="n">
         <v>18.23</v>
@@ -10248,7 +10248,7 @@
         <v>564667</v>
       </c>
       <c r="D446" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="E446" t="n">
         <v>16.62</v>
@@ -10270,7 +10270,7 @@
         <v>545867</v>
       </c>
       <c r="D447" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E447" t="n">
         <v>17.38</v>
@@ -10292,7 +10292,7 @@
         <v>521427</v>
       </c>
       <c r="D448" t="n">
-        <v>1.88</v>
+        <v>0.0188</v>
       </c>
       <c r="E448" t="n">
         <v>17.28</v>
@@ -10314,7 +10314,7 @@
         <v>543333</v>
       </c>
       <c r="D449" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E449" t="n">
         <v>18.48</v>
@@ -10336,7 +10336,7 @@
         <v>409317</v>
       </c>
       <c r="D450" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="E450" t="n">
         <v>22.25</v>
@@ -10358,7 +10358,7 @@
         <v>464302</v>
       </c>
       <c r="D451" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E451" t="n">
         <v>21.74</v>
@@ -10380,7 +10380,7 @@
         <v>458822</v>
       </c>
       <c r="D452" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E452" t="n">
         <v>17.9</v>
@@ -10402,7 +10402,7 @@
         <v>458489</v>
       </c>
       <c r="D453" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="E453" t="n">
         <v>16.37</v>
@@ -10424,7 +10424,7 @@
         <v>460279</v>
       </c>
       <c r="D454" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="E454" t="n">
         <v>16.61</v>
@@ -10446,7 +10446,7 @@
         <v>521833</v>
       </c>
       <c r="D455" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="E455" t="n">
         <v>19.16</v>
@@ -10468,7 +10468,7 @@
         <v>510798</v>
       </c>
       <c r="D456" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="E456" t="n">
         <v>17.58</v>
@@ -10490,7 +10490,7 @@
         <v>392036</v>
       </c>
       <c r="D457" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E457" t="n">
         <v>21.55</v>
@@ -10512,7 +10512,7 @@
         <v>446998</v>
       </c>
       <c r="D458" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="E458" t="n">
         <v>20.92</v>
@@ -10534,7 +10534,7 @@
         <v>460546</v>
       </c>
       <c r="D459" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E459" t="n">
         <v>18.02</v>
@@ -10556,7 +10556,7 @@
         <v>445490</v>
       </c>
       <c r="D460" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E460" t="n">
         <v>16.65</v>
@@ -10578,7 +10578,7 @@
         <v>422096</v>
       </c>
       <c r="D461" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E461" t="n">
         <v>17.02</v>
